--- a/Concept art/Possible layout.xlsx
+++ b/Concept art/Possible layout.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>STARTROOM</t>
   </si>
@@ -69,14 +69,103 @@
   </si>
   <si>
     <t>OFFICE</t>
+  </si>
+  <si>
+    <t>Locker</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Canteen</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Lab storage</t>
+  </si>
+  <si>
+    <t>Sleeping hall</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Weapon locker</t>
+  </si>
+  <si>
+    <t>Clothing/armor locker</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Desk + keyboard etc</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Bench</t>
+  </si>
+  <si>
+    <t>Dining table (prison style?</t>
+  </si>
+  <si>
+    <t>Serving table</t>
+  </si>
+  <si>
+    <t>Power generator(engine)</t>
+  </si>
+  <si>
+    <t>cables/pipes</t>
+  </si>
+  <si>
+    <t>Desk + chemistry equipment</t>
+  </si>
+  <si>
+    <t>Jar of goo</t>
+  </si>
+  <si>
+    <t>boxes of jars</t>
+  </si>
+  <si>
+    <t>jars/tanks of goo</t>
+  </si>
+  <si>
+    <t>Bunk beds</t>
+  </si>
+  <si>
+    <t>nightstands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office desks </t>
+  </si>
+  <si>
+    <t>monitors</t>
+  </si>
+  <si>
+    <t>office cubicle?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -155,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -165,6 +254,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,14 +550,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="22.5703125" customWidth="1"/>
-    <col min="16" max="21" width="14.85546875" customWidth="1"/>
+    <col min="1" max="27" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -498,17 +594,30 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="J2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -527,14 +636,30 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="J3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -564,14 +689,30 @@
         <v>8</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="J4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -599,14 +740,22 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="J5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -624,7 +773,6 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>

--- a/Concept art/Possible layout.xlsx
+++ b/Concept art/Possible layout.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>STARTROOM</t>
   </si>
@@ -50,9 +50,6 @@
     <t>LOUNGE AREA</t>
   </si>
   <si>
-    <t>STAIRS</t>
-  </si>
-  <si>
     <t>LAB</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>office cubicle?</t>
+  </si>
+  <si>
+    <t>EXIT</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -226,6 +226,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -235,25 +261,104 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -262,6 +367,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,566 +683,554 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="53.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="E6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="53.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
